--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snehalp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Court Case No.</t>
   </si>
@@ -96,51 +96,44 @@
 Settled)</t>
   </si>
   <si>
-    <t>Case No 18720</t>
-  </si>
-  <si>
     <t>Case as on date 28dec23</t>
   </si>
   <si>
     <t>Appellant</t>
   </si>
   <si>
-    <t>A/Bita Pharma Company</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
-    <t>a a</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>ABC</t>
   </si>
   <si>
-    <t>Civil</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
     <t>Loss</t>
   </si>
   <si>
-    <t>fe@bitaconsulting.co.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-abhi@gmail.com</t>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t>companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>abc External</t>
+  </si>
+  <si>
+    <t>case no 654345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -149,12 +142,19 @@
       <b/>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -215,6 +215,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,7 +504,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,7 +515,8 @@
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
@@ -591,30 +595,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="3">
         <v>2000</v>
@@ -632,29 +636,25 @@
         <v>2000</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3">
         <v>30000</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Court Case No.</t>
   </si>
@@ -96,9 +96,6 @@
 Settled)</t>
   </si>
   <si>
-    <t>Case as on date 28dec23</t>
-  </si>
-  <si>
     <t>Appellant</t>
   </si>
   <si>
@@ -126,7 +123,7 @@
     <t>abc External</t>
   </si>
   <si>
-    <t>case no 654345</t>
+    <t>Case as on date 260124</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -596,29 +593,29 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
+      <c r="A2" s="5">
+        <v>4658461</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="3">
         <v>2000</v>
@@ -636,25 +633,25 @@
         <v>2000</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3">
         <v>30000</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Court Case No.</t>
   </si>
@@ -114,16 +114,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t>companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t>abc External</t>
-  </si>
-  <si>
-    <t>Case as on date 260124</t>
+    <t>Case as on date 270124</t>
   </si>
 </sst>
 </file>
@@ -500,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,26 +585,20 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5">
-        <v>4658461</v>
+        <v>43353</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
@@ -641,9 +626,7 @@
       <c r="P2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
@@ -655,10 +638,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -114,7 +114,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Case as on date 270124</t>
+    <t>Case as on date 300224</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5">
-        <v>43353</v>
+        <v>1912237</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>

--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Court Case No.</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Case as on date 300224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> case no 657956</t>
   </si>
 </sst>
 </file>
@@ -584,8 +587,8 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="5">
-        <v>1912237</v>
+      <c r="A2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
